--- a/UnityBasic2/Assets/Data/Data.xlsx
+++ b/UnityBasic2/Assets/Data/Data.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\Project\ProjectBS\ProjectBS\Assets\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gpwns\OneDrive\Desktop\경인IT 게임기획자 부트캠프\경인 깃허브\UnityBasic2\UnityBasic2\Assets\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D5624E0-82EA-45F1-8ED0-E4766F84D709}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABCBF41B-E397-427F-AA38-CFFBF0F9DC59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-150" yWindow="510" windowWidth="14400" windowHeight="15600" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Test" sheetId="1" r:id="rId1"/>
+    <sheet name="Test" sheetId="3" r:id="rId1"/>
+    <sheet name="Dialogue" sheetId="1" r:id="rId2"/>
+    <sheet name="Character" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,17 +27,169 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>Name_S</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID_I</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bbno</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="41">
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CharacterPosition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dialogue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BGImage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NameTitle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CharacterID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ariel angry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아리엘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엘프</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Describe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ariel idle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아리엘_기본표정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ariel attack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ariel embarrassing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ariel laugh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ariel sad</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ariel serious</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ariel smile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아리엘_화난표정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아리엘_공격자세</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아리엘_부끄러운표정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아리엘_웃는표정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아리엘_슬픈표정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아리엘_진지한표정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아리엘_미소표정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>죽어라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bg cafe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>슬슬 커피를 마시지 않으면 죽는다!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>죽어라 그대는 못생겼다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어이 듀얼해라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>건강박수 짝짝 뉴비도 고수를 이겨~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신창섭의 정상화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아리에엘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아리에에엘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아리에에에엘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아리에에에에엘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아리에에에에에엘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아리에에에에에에엘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아리에에에에에에에엘</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -79,8 +233,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -360,29 +517,372 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76D8416A-6B1A-4C9D-9D17-4373C510EBF4}">
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="4" width="20.625" customWidth="1"/>
+    <col min="5" max="5" width="31.375" customWidth="1"/>
+    <col min="6" max="7" width="20.625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1001</v>
+      </c>
+      <c r="B2">
+        <v>10101</v>
+      </c>
+      <c r="C2">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>1006</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="4" width="20.625" customWidth="1"/>
+    <col min="5" max="5" width="31.375" customWidth="1"/>
+    <col min="6" max="7" width="20.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
+        <v>1001</v>
+      </c>
+      <c r="B2">
+        <v>10101</v>
+      </c>
+      <c r="C2">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1002</v>
+      </c>
+      <c r="B3">
+        <v>10103</v>
+      </c>
+      <c r="C3">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>1003</v>
+      </c>
+      <c r="B4">
+        <v>10102</v>
+      </c>
+      <c r="C4">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>1004</v>
+      </c>
+      <c r="B5">
+        <v>10104</v>
+      </c>
+      <c r="C5">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>1005</v>
+      </c>
+      <c r="B6">
+        <v>10105</v>
+      </c>
+      <c r="C6">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DC33A0A-3D06-4C21-93D5-0A416F49233D}">
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="5" width="20.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>10101</v>
+      </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>10102</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>10103</v>
+      </c>
+      <c r="B4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>10104</v>
+      </c>
+      <c r="B5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>10105</v>
+      </c>
+      <c r="B6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>10106</v>
+      </c>
+      <c r="B7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>10107</v>
+      </c>
+      <c r="B8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>10108</v>
+      </c>
+      <c r="B9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
